--- a/ConsoleApp1/Sample/6-mst_file.xlsx
+++ b/ConsoleApp1/Sample/6-mst_file.xlsx
@@ -31,58 +31,58 @@
     <x:t>https://example.com/file1/(99%)</x:t>
   </x:si>
   <x:si>
+    <x:t>https://example.com/file4/(94%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file5/(78%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file5/(94%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file6/(69%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file3/(60%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file4/(76%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://example.com/file2/(34%)</x:t>
   </x:si>
   <x:si>
     <x:t>https://example.com/file3/(96%)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file4/(94%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file5/(78%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file5/(94%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file6/(69%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file3/(60%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file4/(76%)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://example.com/file7/(97%)</x:t>
   </x:si>
   <x:si>
     <x:t>https://example.com/file8/(85%)</x:t>
   </x:si>
   <x:si>
+    <x:t>https://example.com/file10/(86%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file11/(89%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://example.com/file8/(91%)</x:t>
   </x:si>
   <x:si>
     <x:t>https://example.com/file9/(44%)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file10/(86%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file11/(89%)</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://example.com/file12/(80%)</x:t>
   </x:si>
   <x:si>
     <x:t>https://example.com/file7/(49%)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://example.com/file9/(42%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://example.com/file10/(22%)</x:t>
+    <x:t>https://example.com/file11/(42%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://example.com/file12/(42%)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -488,7 +488,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -499,7 +499,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>172</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -510,7 +510,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -521,7 +521,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -543,7 +543,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -554,7 +554,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -576,7 +576,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -849,9 +849,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EDF54-49A1-469D-825B-129C7705C252}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50A7E3DC-E0E8-4E18-8DC2-03BF5A36A5F9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB550BF-84F6-482A-951E-EAE45A8A813B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A7334D7-6B1E-4684-9810-2DFE525454CF}"/>
 </file>